--- a/fba_estimate/export_template/FBA_Month_Monitor_Template.xlsx
+++ b/fba_estimate/export_template/FBA_Month_Monitor_Template.xlsx
@@ -644,7 +644,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="7" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -694,6 +694,72 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -706,71 +772,8 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1077,13 +1080,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB53"/>
+  <dimension ref="A1:AB55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1099,61 +1102,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="37" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="29" t="s">
+      <c r="F1" s="22"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="29" t="s">
+      <c r="I1" s="22"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="29" t="s">
+      <c r="L1" s="22"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="30"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="29" t="s">
+      <c r="O1" s="22"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="30"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="29" t="s">
+      <c r="R1" s="22"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="U1" s="30"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="32" t="s">
+      <c r="U1" s="22"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="35" t="s">
+      <c r="X1" s="37"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="39" t="s">
         <v>17</v>
       </c>
       <c r="AB1"/>
     </row>
     <row r="2" spans="1:28" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="41"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="38"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="20"/>
       <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
@@ -1217,14 +1220,14 @@
       <c r="Y2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Z2" s="36"/>
+      <c r="Z2" s="40"/>
       <c r="AB2"/>
     </row>
     <row r="3" spans="1:28" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="27" t="s">
         <v>28</v>
       </c>
       <c r="C3" s="3"/>
@@ -1254,8 +1257,8 @@
       <c r="AB3"/>
     </row>
     <row r="4" spans="1:28" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="24"/>
-      <c r="B4" s="27"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
       <c r="E4" s="5"/>
@@ -1283,8 +1286,8 @@
       <c r="AB4"/>
     </row>
     <row r="5" spans="1:28" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="24"/>
-      <c r="B5" s="27"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="7"/>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
@@ -1312,8 +1315,8 @@
       <c r="AB5"/>
     </row>
     <row r="6" spans="1:28" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="24"/>
-      <c r="B6" s="27"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="14"/>
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
@@ -1341,8 +1344,8 @@
       <c r="AB6"/>
     </row>
     <row r="7" spans="1:28" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="24"/>
-      <c r="B7" s="27"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="3"/>
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
@@ -1370,8 +1373,8 @@
       <c r="AB7"/>
     </row>
     <row r="8" spans="1:28" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="24"/>
-      <c r="B8" s="27"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="18" t="s">
         <v>42</v>
       </c>
@@ -1401,8 +1404,8 @@
       <c r="AB8"/>
     </row>
     <row r="9" spans="1:28" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="24"/>
-      <c r="B9" s="28"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="29"/>
       <c r="C9" s="9" t="s">
         <v>29</v>
       </c>
@@ -1495,8 +1498,8 @@
       <c r="AB9"/>
     </row>
     <row r="10" spans="1:28" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="24"/>
-      <c r="B10" s="26" t="s">
+      <c r="A10" s="25"/>
+      <c r="B10" s="27" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="3"/>
@@ -1526,8 +1529,8 @@
       <c r="AB10"/>
     </row>
     <row r="11" spans="1:28" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="24"/>
-      <c r="B11" s="27"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="3"/>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
@@ -1555,8 +1558,8 @@
       <c r="AB11"/>
     </row>
     <row r="12" spans="1:28" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="24"/>
-      <c r="B12" s="27"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="28"/>
       <c r="C12" s="7"/>
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
@@ -1584,8 +1587,8 @@
       <c r="AB12"/>
     </row>
     <row r="13" spans="1:28" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="24"/>
-      <c r="B13" s="27"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="14"/>
       <c r="D13" s="4"/>
       <c r="E13" s="5"/>
@@ -1613,8 +1616,8 @@
       <c r="AB13"/>
     </row>
     <row r="14" spans="1:28" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="24"/>
-      <c r="B14" s="27"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="3"/>
       <c r="D14" s="4"/>
       <c r="E14" s="5"/>
@@ -1642,8 +1645,8 @@
       <c r="AB14"/>
     </row>
     <row r="15" spans="1:28" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="24"/>
-      <c r="B15" s="27"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="3" t="s">
         <v>41</v>
       </c>
@@ -1673,8 +1676,8 @@
       <c r="AB15"/>
     </row>
     <row r="16" spans="1:28" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="24"/>
-      <c r="B16" s="27"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="3" t="s">
         <v>30</v>
       </c>
@@ -1704,8 +1707,8 @@
       <c r="AB16"/>
     </row>
     <row r="17" spans="1:28" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="24"/>
-      <c r="B17" s="27"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="8" t="s">
         <v>31</v>
       </c>
@@ -1735,8 +1738,8 @@
       <c r="AB17"/>
     </row>
     <row r="18" spans="1:28" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="24"/>
-      <c r="B18" s="27"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="28"/>
       <c r="C18" s="8" t="s">
         <v>32</v>
       </c>
@@ -1766,8 +1769,8 @@
       <c r="AB18"/>
     </row>
     <row r="19" spans="1:28" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A19" s="25"/>
-      <c r="B19" s="28"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="29"/>
       <c r="C19" s="9" t="s">
         <v>13</v>
       </c>
@@ -1860,11 +1863,11 @@
       <c r="AB19"/>
     </row>
     <row r="20" spans="1:28" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="22"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="44"/>
       <c r="D20" s="4"/>
       <c r="E20" s="11">
         <f>E9-E19</f>
@@ -1954,10 +1957,10 @@
       <c r="AB20"/>
     </row>
     <row r="21" spans="1:28" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="27" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="8"/>
@@ -1987,8 +1990,8 @@
       <c r="AB21"/>
     </row>
     <row r="22" spans="1:28" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="24"/>
-      <c r="B22" s="27"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="8"/>
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
@@ -2015,134 +2018,134 @@
       <c r="Z22" s="6"/>
       <c r="AB22"/>
     </row>
-    <row r="23" spans="1:28" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A23" s="24"/>
+    <row r="23" spans="1:28" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="25"/>
       <c r="B23" s="28"/>
-      <c r="C23" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11">
-        <f>SUM(E21:E22)</f>
-        <v>0</v>
-      </c>
-      <c r="F23" s="11">
-        <f t="shared" ref="F23:Y23" si="3">SUM(F21:F22)</f>
-        <v>0</v>
-      </c>
-      <c r="G23" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L23" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M23" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N23" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O23" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P23" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R23" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S23" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T23" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U23" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V23" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W23" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X23" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y23" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="C23" s="45"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
       <c r="Z23" s="6"/>
       <c r="AB23"/>
     </row>
-    <row r="24" spans="1:28" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A24" s="24"/>
-      <c r="B24" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="5"/>
+    <row r="24" spans="1:28" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A24" s="25"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11">
+        <f>SUM(E21:E22)</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="11">
+        <f t="shared" ref="F24:Y24" si="3">SUM(F21:F22)</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R24" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S24" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T24" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U24" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V24" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W24" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X24" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y24" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="Z24" s="6"/>
       <c r="AB24"/>
     </row>
     <row r="25" spans="1:28" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A25" s="24"/>
-      <c r="B25" s="27"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="27" t="s">
+        <v>8</v>
+      </c>
       <c r="C25" s="8"/>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
@@ -2170,11 +2173,9 @@
       <c r="AB25"/>
     </row>
     <row r="26" spans="1:28" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A26" s="24"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="A26" s="25"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="8"/>
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -2201,11 +2202,9 @@
       <c r="AB26"/>
     </row>
     <row r="27" spans="1:28" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A27" s="24"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="8" t="s">
-        <v>36</v>
-      </c>
+      <c r="A27" s="25"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="8"/>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -2232,10 +2231,10 @@
       <c r="AB27"/>
     </row>
     <row r="28" spans="1:28" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A28" s="24"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="8" t="s">
-        <v>37</v>
+      <c r="A28" s="25"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="5"/>
@@ -2262,259 +2261,263 @@
       <c r="Z28" s="6"/>
       <c r="AB28"/>
     </row>
-    <row r="29" spans="1:28" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:28" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="25"/>
       <c r="B29" s="28"/>
-      <c r="C29" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="11">
-        <f>SUM(E24:E28)</f>
-        <v>0</v>
-      </c>
-      <c r="F29" s="11">
-        <f t="shared" ref="F29:Y29" si="4">SUM(F24:F28)</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H29" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I29" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K29" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L29" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M29" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N29" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O29" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P29" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q29" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R29" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S29" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T29" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U29" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V29" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W29" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X29" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y29" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="C29" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
       <c r="Z29" s="6"/>
       <c r="AB29"/>
     </row>
-    <row r="30" spans="1:28" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A30" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="22"/>
+    <row r="30" spans="1:28" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A30" s="25"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="D30" s="4"/>
-      <c r="E30" s="11">
-        <f>E23-E29</f>
-        <v>0</v>
-      </c>
-      <c r="F30" s="11">
-        <f t="shared" ref="F30:Y30" si="5">F23-F29</f>
-        <v>0</v>
-      </c>
-      <c r="G30" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H30" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I30" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J30" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L30" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M30" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N30" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O30" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P30" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q30" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R30" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S30" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T30" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U30" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V30" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="W30" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X30" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y30" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
       <c r="Z30" s="6"/>
       <c r="AB30"/>
     </row>
     <row r="31" spans="1:28" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A31" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="8"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="D31" s="10"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="13"/>
-      <c r="T31" s="13"/>
-      <c r="U31" s="13"/>
-      <c r="V31" s="13"/>
-      <c r="W31" s="13"/>
-      <c r="X31" s="13"/>
-      <c r="Y31" s="13"/>
+      <c r="E31" s="11">
+        <f>SUM(E25:E30)</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="11">
+        <f t="shared" ref="F31:Y31" si="4">SUM(F25:F30)</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R31" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S31" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T31" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U31" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V31" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W31" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X31" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y31" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="Z31" s="6"/>
       <c r="AB31"/>
     </row>
     <row r="32" spans="1:28" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A32" s="27"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="13"/>
-      <c r="R32" s="13"/>
-      <c r="S32" s="13"/>
-      <c r="T32" s="13"/>
-      <c r="U32" s="13"/>
-      <c r="V32" s="13"/>
-      <c r="W32" s="13"/>
-      <c r="X32" s="13"/>
-      <c r="Y32" s="13"/>
+      <c r="A32" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="43"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="11">
+        <f>E24-E31</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="11">
+        <f t="shared" ref="F32:Y32" si="5">F24-F31</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R32" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S32" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T32" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U32" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V32" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W32" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X32" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y32" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="Z32" s="6"/>
       <c r="AB32"/>
     </row>
     <row r="33" spans="1:28" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A33" s="27"/>
-      <c r="B33" s="27"/>
+      <c r="A33" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>28</v>
+      </c>
       <c r="C33" s="8"/>
       <c r="D33" s="10"/>
       <c r="E33" s="13"/>
@@ -2542,162 +2545,162 @@
       <c r="AB33"/>
     </row>
     <row r="34" spans="1:28" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A34" s="27"/>
+      <c r="A34" s="28"/>
       <c r="B34" s="28"/>
-      <c r="C34" s="9" t="s">
-        <v>29</v>
-      </c>
+      <c r="C34" s="8"/>
       <c r="D34" s="10"/>
-      <c r="E34" s="11">
-        <f>SUM(E31:E33)</f>
-        <v>0</v>
-      </c>
-      <c r="F34" s="11">
-        <f t="shared" ref="F34:Y34" si="6">SUM(F31:F33)</f>
-        <v>0</v>
-      </c>
-      <c r="G34" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H34" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I34" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J34" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K34" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L34" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M34" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N34" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O34" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P34" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q34" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R34" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S34" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="T34" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U34" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V34" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W34" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="X34" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Y34" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="13"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="13"/>
+      <c r="V34" s="13"/>
+      <c r="W34" s="13"/>
+      <c r="X34" s="13"/>
+      <c r="Y34" s="13"/>
       <c r="Z34" s="6"/>
       <c r="AB34"/>
     </row>
-    <row r="35" spans="1:28" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="27"/>
-      <c r="B35" s="26" t="s">
-        <v>39</v>
-      </c>
+    <row r="35" spans="1:28" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A35" s="28"/>
+      <c r="B35" s="28"/>
       <c r="C35" s="8"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="5"/>
-      <c r="S35" s="5"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="5"/>
-      <c r="V35" s="5"/>
-      <c r="W35" s="5"/>
-      <c r="X35" s="5"/>
-      <c r="Y35" s="5"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
+      <c r="R35" s="13"/>
+      <c r="S35" s="13"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="13"/>
+      <c r="V35" s="13"/>
+      <c r="W35" s="13"/>
+      <c r="X35" s="13"/>
+      <c r="Y35" s="13"/>
       <c r="Z35" s="6"/>
       <c r="AB35"/>
     </row>
-    <row r="36" spans="1:28" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="27"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
-      <c r="U36" s="5"/>
-      <c r="V36" s="5"/>
-      <c r="W36" s="5"/>
-      <c r="X36" s="5"/>
-      <c r="Y36" s="5"/>
+    <row r="36" spans="1:28" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A36" s="28"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="11">
+        <f>SUM(E33:E35)</f>
+        <v>0</v>
+      </c>
+      <c r="F36" s="11">
+        <f t="shared" ref="F36:Y36" si="6">SUM(F33:F35)</f>
+        <v>0</v>
+      </c>
+      <c r="G36" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L36" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N36" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O36" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P36" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S36" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T36" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U36" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V36" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W36" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X36" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y36" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="Z36" s="6"/>
       <c r="AB36"/>
     </row>
     <row r="37" spans="1:28" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="27"/>
-      <c r="B37" s="27"/>
+      <c r="A37" s="28"/>
+      <c r="B37" s="27" t="s">
+        <v>39</v>
+      </c>
       <c r="C37" s="8"/>
       <c r="D37" s="4"/>
       <c r="E37" s="5"/>
@@ -2725,11 +2728,9 @@
       <c r="AB37"/>
     </row>
     <row r="38" spans="1:28" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="27"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="8" t="s">
-        <v>40</v>
-      </c>
+      <c r="A38" s="28"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="8"/>
       <c r="D38" s="4"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -2756,11 +2757,9 @@
       <c r="AB38"/>
     </row>
     <row r="39" spans="1:28" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="27"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="A39" s="28"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="8"/>
       <c r="D39" s="4"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
@@ -2786,416 +2785,418 @@
       <c r="Z39" s="6"/>
       <c r="AB39"/>
     </row>
-    <row r="40" spans="1:28" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:28" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="28"/>
       <c r="B40" s="28"/>
-      <c r="C40" s="9" t="s">
-        <v>13</v>
+      <c r="C40" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="D40" s="4"/>
-      <c r="E40" s="11">
-        <f>SUM(E35:E39)</f>
-        <v>0</v>
-      </c>
-      <c r="F40" s="11">
-        <f t="shared" ref="F40:Y40" si="7">SUM(F35:F39)</f>
-        <v>0</v>
-      </c>
-      <c r="G40" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H40" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I40" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J40" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K40" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L40" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M40" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N40" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O40" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P40" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q40" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R40" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S40" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T40" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="U40" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V40" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W40" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X40" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Y40" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5"/>
+      <c r="X40" s="5"/>
+      <c r="Y40" s="5"/>
       <c r="Z40" s="6"/>
       <c r="AB40"/>
     </row>
-    <row r="41" spans="1:28" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A41" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" s="21"/>
-      <c r="C41" s="22"/>
+    <row r="41" spans="1:28" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="28"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="D41" s="4"/>
-      <c r="E41" s="11">
-        <f>E34-E40</f>
-        <v>0</v>
-      </c>
-      <c r="F41" s="11">
-        <f t="shared" ref="F41:Y41" si="8">F34-F40</f>
-        <v>0</v>
-      </c>
-      <c r="G41" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H41" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I41" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J41" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K41" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L41" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M41" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N41" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O41" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P41" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q41" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R41" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S41" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T41" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U41" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V41" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W41" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="X41" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y41" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="5"/>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="5"/>
       <c r="Z41" s="6"/>
       <c r="AB41"/>
     </row>
     <row r="42" spans="1:28" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A42" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B42" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" s="14"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="13"/>
-      <c r="O42" s="13"/>
-      <c r="P42" s="13"/>
-      <c r="Q42" s="13"/>
-      <c r="R42" s="13"/>
-      <c r="S42" s="13"/>
-      <c r="T42" s="13"/>
-      <c r="U42" s="13"/>
-      <c r="V42" s="13"/>
-      <c r="W42" s="13"/>
-      <c r="X42" s="13"/>
-      <c r="Y42" s="13"/>
+      <c r="A42" s="29"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="4"/>
+      <c r="E42" s="11">
+        <f>SUM(E37:E41)</f>
+        <v>0</v>
+      </c>
+      <c r="F42" s="11">
+        <f t="shared" ref="F42:Y42" si="7">SUM(F37:F41)</f>
+        <v>0</v>
+      </c>
+      <c r="G42" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L42" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M42" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N42" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O42" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P42" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R42" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S42" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T42" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U42" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V42" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W42" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X42" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y42" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Z42" s="6"/>
       <c r="AB42"/>
     </row>
     <row r="43" spans="1:28" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A43" s="27"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="13"/>
-      <c r="L43" s="13"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="13"/>
-      <c r="O43" s="13"/>
-      <c r="P43" s="13"/>
-      <c r="Q43" s="13"/>
-      <c r="R43" s="13"/>
-      <c r="S43" s="13"/>
-      <c r="T43" s="13"/>
-      <c r="U43" s="13"/>
-      <c r="V43" s="13"/>
-      <c r="W43" s="13"/>
-      <c r="X43" s="13"/>
-      <c r="Y43" s="13"/>
+      <c r="A43" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="43"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="11">
+        <f>E36-E42</f>
+        <v>0</v>
+      </c>
+      <c r="F43" s="11">
+        <f t="shared" ref="F43:Y43" si="8">F36-F42</f>
+        <v>0</v>
+      </c>
+      <c r="G43" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H43" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L43" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M43" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N43" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O43" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P43" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R43" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S43" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T43" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U43" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V43" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W43" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X43" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Y43" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="Z43" s="6"/>
       <c r="AB43"/>
     </row>
     <row r="44" spans="1:28" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A44" s="27"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="9" t="s">
-        <v>34</v>
-      </c>
+      <c r="A44" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="14"/>
       <c r="D44" s="10"/>
-      <c r="E44" s="11">
-        <f>SUM(E42:E43)</f>
-        <v>0</v>
-      </c>
-      <c r="F44" s="11">
-        <f t="shared" ref="F44:Y44" si="9">SUM(F42:F43)</f>
-        <v>0</v>
-      </c>
-      <c r="G44" s="11">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H44" s="11">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I44" s="11">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J44" s="11">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K44" s="11">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L44" s="11">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M44" s="11">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="N44" s="11">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O44" s="11">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P44" s="11">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Q44" s="11">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="R44" s="11">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="S44" s="11">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T44" s="11">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="U44" s="11">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V44" s="11">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="W44" s="11">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X44" s="11">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y44" s="11">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+      <c r="N44" s="13"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="13"/>
+      <c r="R44" s="13"/>
+      <c r="S44" s="13"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="13"/>
+      <c r="V44" s="13"/>
+      <c r="W44" s="13"/>
+      <c r="X44" s="13"/>
+      <c r="Y44" s="13"/>
       <c r="Z44" s="6"/>
       <c r="AB44"/>
     </row>
-    <row r="45" spans="1:28" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="27"/>
-      <c r="B45" s="26" t="s">
-        <v>8</v>
-      </c>
+    <row r="45" spans="1:28" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A45" s="28"/>
+      <c r="B45" s="28"/>
       <c r="C45" s="14"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
-      <c r="O45" s="5"/>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="5"/>
-      <c r="R45" s="5"/>
-      <c r="S45" s="5"/>
-      <c r="T45" s="5"/>
-      <c r="U45" s="5"/>
-      <c r="V45" s="5"/>
-      <c r="W45" s="5"/>
-      <c r="X45" s="5"/>
-      <c r="Y45" s="5"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="13"/>
+      <c r="N45" s="13"/>
+      <c r="O45" s="13"/>
+      <c r="P45" s="13"/>
+      <c r="Q45" s="13"/>
+      <c r="R45" s="13"/>
+      <c r="S45" s="13"/>
+      <c r="T45" s="13"/>
+      <c r="U45" s="13"/>
+      <c r="V45" s="13"/>
+      <c r="W45" s="13"/>
+      <c r="X45" s="13"/>
+      <c r="Y45" s="13"/>
       <c r="Z45" s="6"/>
       <c r="AB45"/>
     </row>
-    <row r="46" spans="1:28" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="27"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
-      <c r="O46" s="5"/>
-      <c r="P46" s="5"/>
-      <c r="Q46" s="5"/>
-      <c r="R46" s="5"/>
-      <c r="S46" s="5"/>
-      <c r="T46" s="5"/>
-      <c r="U46" s="5"/>
-      <c r="V46" s="5"/>
-      <c r="W46" s="5"/>
-      <c r="X46" s="5"/>
-      <c r="Y46" s="5"/>
+    <row r="46" spans="1:28" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A46" s="28"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D46" s="10"/>
+      <c r="E46" s="11">
+        <f>SUM(E44:E45)</f>
+        <v>0</v>
+      </c>
+      <c r="F46" s="11">
+        <f t="shared" ref="F46:Y46" si="9">SUM(F44:F45)</f>
+        <v>0</v>
+      </c>
+      <c r="G46" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H46" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I46" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J46" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K46" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L46" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M46" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N46" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O46" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P46" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q46" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R46" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S46" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T46" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U46" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V46" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W46" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X46" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y46" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="Z46" s="6"/>
       <c r="AB46"/>
     </row>
-    <row r="47" spans="1:28" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A47" s="27"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="8" t="s">
-        <v>40</v>
-      </c>
+    <row r="47" spans="1:28" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="28"/>
+      <c r="B47" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="14"/>
       <c r="D47" s="4"/>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
@@ -3221,374 +3222,453 @@
       <c r="Z47" s="6"/>
       <c r="AB47"/>
     </row>
-    <row r="48" spans="1:28" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:28" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="28"/>
       <c r="B48" s="28"/>
-      <c r="C48" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="10"/>
-      <c r="E48" s="11">
-        <f>SUM(E45:E47)</f>
-        <v>0</v>
-      </c>
-      <c r="F48" s="11">
-        <f t="shared" ref="F48:Y48" si="10">SUM(F45:F47)</f>
-        <v>0</v>
-      </c>
-      <c r="G48" s="11">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H48" s="11">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I48" s="11">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J48" s="11">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K48" s="11">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L48" s="11">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="M48" s="11">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="N48" s="11">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="O48" s="11">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P48" s="11">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Q48" s="11">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R48" s="11">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="S48" s="11">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="T48" s="11">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="U48" s="11">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="V48" s="11">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="W48" s="11">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="X48" s="11">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y48" s="11">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
+      <c r="C48" s="14"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="5"/>
+      <c r="V48" s="5"/>
+      <c r="W48" s="5"/>
+      <c r="X48" s="5"/>
+      <c r="Y48" s="5"/>
       <c r="Z48" s="6"/>
       <c r="AB48"/>
     </row>
-    <row r="49" spans="1:28" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A49" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B49" s="19"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="11">
-        <f>E44-E48</f>
-        <v>0</v>
-      </c>
-      <c r="F49" s="11">
-        <f t="shared" ref="F49:Y49" si="11">F44-F48</f>
-        <v>0</v>
-      </c>
-      <c r="G49" s="11">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="H49" s="11">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I49" s="11">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="J49" s="11">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K49" s="11">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="L49" s="11">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="M49" s="11">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N49" s="11">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="O49" s="11">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="P49" s="11">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Q49" s="11">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="R49" s="11">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="S49" s="11">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="T49" s="11">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="U49" s="11">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="V49" s="11">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="W49" s="11">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="X49" s="11">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Y49" s="11">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+    <row r="49" spans="1:28" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A49" s="28"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="5"/>
+      <c r="S49" s="5"/>
+      <c r="T49" s="5"/>
+      <c r="U49" s="5"/>
+      <c r="V49" s="5"/>
+      <c r="W49" s="5"/>
+      <c r="X49" s="5"/>
+      <c r="Y49" s="5"/>
       <c r="Z49" s="6"/>
       <c r="AB49"/>
     </row>
     <row r="50" spans="1:28" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A50" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B50" s="19"/>
-      <c r="C50" s="20"/>
+      <c r="A50" s="29"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="D50" s="10"/>
       <c r="E50" s="11">
-        <f>E20+E30+E41+E49</f>
+        <f>SUM(E47:E49)</f>
         <v>0</v>
       </c>
       <c r="F50" s="11">
-        <f t="shared" ref="F50:Y50" si="12">F20+F30+F41+F49</f>
+        <f t="shared" ref="F50:Y50" si="10">SUM(F47:F49)</f>
         <v>0</v>
       </c>
       <c r="G50" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H50" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I50" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J50" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K50" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L50" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M50" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N50" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O50" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P50" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q50" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R50" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S50" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T50" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U50" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V50" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W50" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X50" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y50" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z50" s="6"/>
       <c r="AB50"/>
     </row>
-    <row r="51" spans="1:28" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="15"/>
-      <c r="B51" s="15"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="15"/>
-      <c r="K51" s="15"/>
-      <c r="L51" s="15"/>
-      <c r="M51" s="15"/>
-      <c r="N51" s="15"/>
-      <c r="O51" s="15"/>
-      <c r="P51" s="15"/>
-      <c r="Q51" s="15"/>
-      <c r="R51" s="15"/>
-      <c r="S51" s="15"/>
-      <c r="T51" s="15"/>
-      <c r="U51" s="15"/>
-      <c r="V51" s="15"/>
-      <c r="W51" s="15"/>
-      <c r="X51" s="16"/>
-      <c r="Y51" s="16"/>
+    <row r="51" spans="1:28" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A51" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="41"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="11">
+        <f>E46-E50</f>
+        <v>0</v>
+      </c>
+      <c r="F51" s="11">
+        <f t="shared" ref="F51:Y51" si="11">F46-F50</f>
+        <v>0</v>
+      </c>
+      <c r="G51" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H51" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I51" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J51" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K51" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L51" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M51" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N51" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O51" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P51" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q51" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R51" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S51" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T51" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U51" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V51" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W51" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X51" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y51" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Z51" s="6"/>
       <c r="AB51"/>
     </row>
-    <row r="52" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="16"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="16"/>
-      <c r="L52" s="16"/>
-      <c r="M52" s="16"/>
-      <c r="N52" s="16"/>
-      <c r="O52" s="16"/>
-      <c r="P52" s="16"/>
-      <c r="Q52" s="16"/>
-      <c r="R52" s="16"/>
-      <c r="S52" s="16"/>
-      <c r="T52" s="16"/>
-      <c r="U52" s="16"/>
-      <c r="V52" s="16"/>
-      <c r="W52" s="16"/>
-      <c r="X52" s="16"/>
-      <c r="Y52" s="16"/>
+    <row r="52" spans="1:28" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A52" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" s="41"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="11">
+        <f>E20+E32+E43+E51</f>
+        <v>0</v>
+      </c>
+      <c r="F52" s="11">
+        <f t="shared" ref="F52:Y52" si="12">F20+F32+F43+F51</f>
+        <v>0</v>
+      </c>
+      <c r="G52" s="11">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H52" s="11">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I52" s="11">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J52" s="11">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K52" s="11">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L52" s="11">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M52" s="11">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N52" s="11">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O52" s="11">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P52" s="11">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Q52" s="11">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R52" s="11">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S52" s="11">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T52" s="11">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U52" s="11">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V52" s="11">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="W52" s="11">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="X52" s="11">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Y52" s="11">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z52" s="6"/>
       <c r="AB52"/>
     </row>
-    <row r="53" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="17"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="17"/>
-      <c r="J53" s="17"/>
-      <c r="K53" s="17"/>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="17"/>
-      <c r="Q53" s="17"/>
-      <c r="R53" s="17"/>
-      <c r="S53" s="17"/>
-      <c r="T53" s="17"/>
-      <c r="U53" s="17"/>
-      <c r="V53" s="17"/>
-      <c r="W53" s="17"/>
-      <c r="X53" s="17"/>
-      <c r="Y53" s="17"/>
+    <row r="53" spans="1:28" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="15"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="15"/>
+      <c r="L53" s="15"/>
+      <c r="M53" s="15"/>
+      <c r="N53" s="15"/>
+      <c r="O53" s="15"/>
+      <c r="P53" s="15"/>
+      <c r="Q53" s="15"/>
+      <c r="R53" s="15"/>
+      <c r="S53" s="15"/>
+      <c r="T53" s="15"/>
+      <c r="U53" s="15"/>
+      <c r="V53" s="15"/>
+      <c r="W53" s="15"/>
+      <c r="X53" s="16"/>
+      <c r="Y53" s="16"/>
       <c r="AB53"/>
+    </row>
+    <row r="54" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="16"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="16"/>
+      <c r="L54" s="16"/>
+      <c r="M54" s="16"/>
+      <c r="N54" s="16"/>
+      <c r="O54" s="16"/>
+      <c r="P54" s="16"/>
+      <c r="Q54" s="16"/>
+      <c r="R54" s="16"/>
+      <c r="S54" s="16"/>
+      <c r="T54" s="16"/>
+      <c r="U54" s="16"/>
+      <c r="V54" s="16"/>
+      <c r="W54" s="16"/>
+      <c r="X54" s="16"/>
+      <c r="Y54" s="16"/>
+      <c r="AB54"/>
+    </row>
+    <row r="55" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="17"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="17"/>
+      <c r="K55" s="17"/>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="17"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="17"/>
+      <c r="R55" s="17"/>
+      <c r="S55" s="17"/>
+      <c r="T55" s="17"/>
+      <c r="U55" s="17"/>
+      <c r="V55" s="17"/>
+      <c r="W55" s="17"/>
+      <c r="X55" s="17"/>
+      <c r="Y55" s="17"/>
+      <c r="AB55"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:A31"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B25:B31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:A42"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B37:B42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A44:A50"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="Z1:Z2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
@@ -3598,25 +3678,6 @@
     <mergeCell ref="B10:B19"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:A29"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:A40"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="B35:B40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:A48"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="A49:C49"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
